--- a/batch.xlsx
+++ b/batch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,357 +434,107 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270098FF50&gt;</t>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000025189C3BAD0&gt;</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CF5D0&gt;</t>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000025187BBEC50&gt;</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CEB90&gt;</t>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000002519120BFD0&gt;</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CDC90&gt;</t>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000025187B17E10&gt;</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CCC50&gt;</t>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000251911A5F90&gt;</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CCF10&gt;</t>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000025189E0DE10&gt;</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CEA90&gt;</t>
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000025187BFC610&gt;</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CCFD0&gt;</t>
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000025187421DD0&gt;</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CCC90&gt;</t>
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000025187421150&gt;</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CE650&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227007D9B90&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CD5D0&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CD7D0&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CD990&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CF6D0&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CC490&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CC810&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CD950&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CEC50&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CC550&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CFB90&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CE5D0&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CF990&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CCED0&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CD750&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CE390&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CE190&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CDB10&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CDE50&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CE0D0&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CEC10&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CD210&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002277FA75F90&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002277FA76050&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134C090&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134C210&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134C250&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134C310&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134C3D0&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000227000CEFD0&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134C610&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134C690&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134C750&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134C810&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134C8D0&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134C990&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134CA50&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134CB10&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134CBD0&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002270134CC90&gt;</t>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000025189E0F4D0&gt;</t>
         </is>
       </c>
     </row>
